--- a/public/data/yield_loss/yield_table_nigeria.xlsx
+++ b/public/data/yield_loss/yield_table_nigeria.xlsx
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>721.72</v>
+        <v>433.29</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>15046.58</v>
+        <v>15005.97</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1386.86</v>
+        <v>760.38</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>26823.58</v>
+        <v>26337.97</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>132.84</v>
+        <v>116.6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -5309,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>155.81</v>
+        <v>143.78</v>
       </c>
       <c r="L24" t="n">
-        <v>6.82</v>
+        <v>6.15</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -5389,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.19</v>
+        <v>55.91</v>
       </c>
       <c r="L25" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -5469,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>514.88</v>
+        <v>215.61</v>
       </c>
       <c r="L26" t="n">
-        <v>62.99</v>
+        <v>45.89</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9036.86</v>
+        <v>8942.42</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.15</v>
+        <v>103.99</v>
       </c>
       <c r="R26" t="n">
         <v>0.5</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>132.84</v>
+        <v>131.23</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -5629,16 +5629,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>808.8</v>
+        <v>516.09</v>
       </c>
       <c r="L28" t="n">
-        <v>140.12</v>
+        <v>124.46</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>15419.92</v>
+        <v>15334.2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -5709,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>76.75</v>
+        <v>75.79</v>
       </c>
       <c r="L29" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>19.32</v>
+        <v>18.9</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>187.24</v>
+        <v>165.74</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>132.6</v>
+        <v>111</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>60.94</v>
+        <v>60.91</v>
       </c>
       <c r="L33" t="n">
-        <v>81.38</v>
+        <v>80.94</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -6109,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.03</v>
+        <v>127.52</v>
       </c>
       <c r="L34" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -6189,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>134.55</v>
+        <v>121.8</v>
       </c>
       <c r="L35" t="n">
-        <v>3.07</v>
+        <v>2.77</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>22.41</v>
+        <v>22.06</v>
       </c>
       <c r="G54" t="n">
         <v>0.11</v>
@@ -7712,7 +7712,7 @@
         <v>22</v>
       </c>
       <c r="L54" t="n">
-        <v>318.96</v>
+        <v>314.6</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>8.3</v>
+        <v>7.67</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>19.09</v>
+        <v>18.12</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>17.29</v>
+        <v>11.22</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>279.38</v>
+        <v>195.44</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>10049.25</v>
+        <v>10043.88</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>11780.42</v>
+        <v>11778.69</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>19.87</v>
+        <v>17.76</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>4.57</v>
+        <v>4.37</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L103" t="n">
         <v>1.33</v>
@@ -11869,10 +11869,10 @@
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>12.31</v>
+        <v>12.06</v>
       </c>
       <c r="L106" t="n">
-        <v>24.3</v>
+        <v>23.11</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -11949,10 +11949,10 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>23.96</v>
+        <v>23.86</v>
       </c>
       <c r="L107" t="n">
-        <v>17.49</v>
+        <v>17.13</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>7.83</v>
+        <v>7.82</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>9.32</v>
+        <v>9.21</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -14029,10 +14029,10 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>200.94</v>
+        <v>197.98</v>
       </c>
       <c r="L133" t="n">
-        <v>16.88</v>
+        <v>16.46</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
@@ -14112,7 +14112,7 @@
         <v>6.51</v>
       </c>
       <c r="L134" t="n">
-        <v>20.51</v>
+        <v>20.35</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>10.88</v>
+        <v>10.87</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
@@ -14269,10 +14269,10 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>485.72</v>
+        <v>437.25</v>
       </c>
       <c r="L136" t="n">
-        <v>19.29</v>
+        <v>18.4</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -14989,10 +14989,10 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>236.86</v>
+        <v>236.45</v>
       </c>
       <c r="L145" t="n">
-        <v>3682.83</v>
+        <v>3620.83</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -15019,7 +15019,7 @@
         <v>402.28</v>
       </c>
       <c r="U145" t="n">
-        <v>1805.29</v>
+        <v>1798.35</v>
       </c>
       <c r="V145" t="n">
         <v>0</v>
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>74.09</v>
+        <v>53.27</v>
       </c>
       <c r="G147" t="n">
         <v>2556.99</v>
@@ -15149,16 +15149,16 @@
         <v>11.82</v>
       </c>
       <c r="K147" t="n">
-        <v>808.4</v>
+        <v>762.42</v>
       </c>
       <c r="L147" t="n">
-        <v>11234.63</v>
+        <v>9910.65</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>3846.42</v>
+        <v>3846.23</v>
       </c>
       <c r="O147" t="n">
         <v>0</v>
@@ -15167,7 +15167,7 @@
         <v>524.4</v>
       </c>
       <c r="Q147" t="n">
-        <v>1022.54</v>
+        <v>1022.53</v>
       </c>
       <c r="R147" t="n">
         <v>13.34</v>
@@ -15176,10 +15176,10 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>1198.62</v>
+        <v>1198.61</v>
       </c>
       <c r="U147" t="n">
-        <v>5338.1</v>
+        <v>4771.01</v>
       </c>
       <c r="V147" t="n">
         <v>40.87</v>
@@ -16112,7 +16112,7 @@
         <v>17.39</v>
       </c>
       <c r="L159" t="n">
-        <v>1227.35</v>
+        <v>1227.13</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -18432,7 +18432,7 @@
         <v>1.87</v>
       </c>
       <c r="L188" t="n">
-        <v>55.54</v>
+        <v>55.37</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>37.4</v>
+        <v>20.2</v>
       </c>
       <c r="G189" t="n">
         <v>34081.68</v>
@@ -18509,16 +18509,16 @@
         <v>5.02</v>
       </c>
       <c r="K189" t="n">
-        <v>34.41</v>
+        <v>25.38</v>
       </c>
       <c r="L189" t="n">
-        <v>1498.42</v>
+        <v>810.4</v>
       </c>
       <c r="M189" t="n">
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>34439.13</v>
+        <v>33951.64</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>3.07</v>
+        <v>1.83</v>
       </c>
       <c r="G190" t="n">
         <v>14477.59</v>
@@ -18589,10 +18589,10 @@
         <v>0.5</v>
       </c>
       <c r="K190" t="n">
-        <v>3.47</v>
+        <v>2.49</v>
       </c>
       <c r="L190" t="n">
-        <v>436.79</v>
+        <v>257.59</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1.62</v>
+        <v>1.09</v>
       </c>
       <c r="G191" t="n">
         <v>168.45</v>
@@ -18669,10 +18669,10 @@
         <v>0.27</v>
       </c>
       <c r="K191" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="L191" t="n">
-        <v>208.96</v>
+        <v>140.56</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
@@ -18829,10 +18829,10 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>36.64</v>
+        <v>32.35</v>
       </c>
       <c r="L193" t="n">
-        <v>8.35</v>
+        <v>8.28</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="G194" t="n">
         <v>4471.89</v>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>119.45</v>
+        <v>113.62</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>9.58</v>
+        <v>8.71</v>
       </c>
       <c r="G197" t="n">
         <v>3012.87</v>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>484.94</v>
+        <v>439.65</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>81.35</v>
+        <v>26.57</v>
       </c>
       <c r="G199" t="n">
         <v>6821.14</v>
@@ -19309,25 +19309,25 @@
         <v>10.77</v>
       </c>
       <c r="K199" t="n">
-        <v>79.12</v>
+        <v>102.13</v>
       </c>
       <c r="L199" t="n">
-        <v>1357.04</v>
+        <v>1083.88</v>
       </c>
       <c r="M199" t="n">
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>9385.96</v>
+        <v>9240.76</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
       </c>
       <c r="P199" t="n">
-        <v>217.05</v>
+        <v>216.3</v>
       </c>
       <c r="Q199" t="n">
-        <v>190.06</v>
+        <v>190.05</v>
       </c>
       <c r="R199" t="n">
         <v>21.39</v>
@@ -19336,10 +19336,10 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>170.59</v>
+        <v>170.58</v>
       </c>
       <c r="U199" t="n">
-        <v>207.3</v>
+        <v>238</v>
       </c>
       <c r="V199" t="n">
         <v>85.87</v>
@@ -19354,7 +19354,7 @@
         <v>0.6</v>
       </c>
       <c r="Z199" t="n">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="200">
@@ -19472,7 +19472,7 @@
         <v>7.55</v>
       </c>
       <c r="L201" t="n">
-        <v>163.29</v>
+        <v>163.07</v>
       </c>
       <c r="M201" t="n">
         <v>0</v>
@@ -19549,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>21.66</v>
+        <v>19.76</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="L209" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="M209" t="n">
         <v>0</v>
@@ -20189,10 +20189,10 @@
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="L210" t="n">
-        <v>65.14</v>
+        <v>55.38</v>
       </c>
       <c r="M210" t="n">
         <v>0</v>
@@ -20269,10 +20269,10 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>4.46</v>
+        <v>4.38</v>
       </c>
       <c r="L211" t="n">
-        <v>37.94</v>
+        <v>35.52</v>
       </c>
       <c r="M211" t="n">
         <v>0</v>
@@ -20512,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>98.69</v>
+        <v>70.75</v>
       </c>
       <c r="M214" t="n">
         <v>0</v>
@@ -20592,7 +20592,7 @@
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>81.98</v>
+        <v>55.75</v>
       </c>
       <c r="M215" t="n">
         <v>0</v>
@@ -20669,10 +20669,10 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>17.35</v>
+        <v>17.23</v>
       </c>
       <c r="L216" t="n">
-        <v>38.03</v>
+        <v>37.69</v>
       </c>
       <c r="M216" t="n">
         <v>0</v>
@@ -20752,7 +20752,7 @@
         <v>1.24</v>
       </c>
       <c r="L217" t="n">
-        <v>60.34</v>
+        <v>55</v>
       </c>
       <c r="M217" t="n">
         <v>0</v>
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="L218" t="n">
-        <v>74.2</v>
+        <v>53.89</v>
       </c>
       <c r="M218" t="n">
         <v>0</v>
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>8.48</v>
+        <v>8.39</v>
       </c>
       <c r="M221" t="n">
         <v>0</v>
@@ -21152,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>53.93</v>
+        <v>38.51</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
@@ -21232,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>20.66</v>
+        <v>16.29</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -21309,10 +21309,10 @@
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="L224" t="n">
-        <v>160.26</v>
+        <v>122.16</v>
       </c>
       <c r="M224" t="n">
         <v>0</v>
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>122.3</v>
+        <v>76.7</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
@@ -21472,7 +21472,7 @@
         <v>0.57</v>
       </c>
       <c r="L226" t="n">
-        <v>27.86</v>
+        <v>26.89</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>24.66</v>
+        <v>21.58</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
@@ -21629,10 +21629,10 @@
         <v>0.12</v>
       </c>
       <c r="K228" t="n">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="L228" t="n">
-        <v>24.64</v>
+        <v>24.08</v>
       </c>
       <c r="M228" t="n">
         <v>0</v>
@@ -21712,7 +21712,7 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>21.02</v>
+        <v>20.46</v>
       </c>
       <c r="M229" t="n">
         <v>0</v>
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>6.25</v>
+        <v>6.22</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
@@ -21949,10 +21949,10 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>15</v>
+        <v>14.71</v>
       </c>
       <c r="L232" t="n">
-        <v>218.56</v>
+        <v>211.11</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -22029,10 +22029,10 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>63.32</v>
+        <v>61.01</v>
       </c>
       <c r="L233" t="n">
-        <v>459.64</v>
+        <v>436.5</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -22509,10 +22509,10 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>17.73</v>
+        <v>17.59</v>
       </c>
       <c r="L239" t="n">
-        <v>129.3</v>
+        <v>127.95</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -23069,10 +23069,10 @@
         <v>0</v>
       </c>
       <c r="K246" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="L246" t="n">
-        <v>17.28</v>
+        <v>17.18</v>
       </c>
       <c r="M246" t="n">
         <v>0</v>
@@ -23229,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>12.7</v>
+        <v>12.67</v>
       </c>
       <c r="L248" t="n">
-        <v>42.72</v>
+        <v>42.57</v>
       </c>
       <c r="M248" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>7.92</v>
       </c>
       <c r="L249" t="n">
-        <v>29.13</v>
+        <v>29.09</v>
       </c>
       <c r="M249" t="n">
         <v>0</v>
@@ -23629,10 +23629,10 @@
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>14.67</v>
+        <v>14.64</v>
       </c>
       <c r="L253" t="n">
-        <v>37.28</v>
+        <v>37.08</v>
       </c>
       <c r="M253" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="K254" t="n">
-        <v>26.09</v>
+        <v>25.39</v>
       </c>
       <c r="L254" t="n">
-        <v>76.16</v>
+        <v>73.44</v>
       </c>
       <c r="M254" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>21.61</v>
+        <v>21.03</v>
       </c>
       <c r="L255" t="n">
-        <v>52.73</v>
+        <v>50.93</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -23869,10 +23869,10 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="L256" t="n">
-        <v>83.15</v>
+        <v>80.62</v>
       </c>
       <c r="M256" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0.03</v>
       </c>
       <c r="K257" t="n">
-        <v>31.56</v>
+        <v>31.17</v>
       </c>
       <c r="L257" t="n">
-        <v>94.35</v>
+        <v>93.08</v>
       </c>
       <c r="M257" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>1.21</v>
       </c>
       <c r="K258" t="n">
-        <v>42.2</v>
+        <v>41.74</v>
       </c>
       <c r="L258" t="n">
-        <v>111.71</v>
+        <v>109.05</v>
       </c>
       <c r="M258" t="n">
         <v>0</v>
@@ -24509,10 +24509,10 @@
         <v>0.21</v>
       </c>
       <c r="K264" t="n">
-        <v>69.19</v>
+        <v>64.53</v>
       </c>
       <c r="L264" t="n">
-        <v>94.21</v>
+        <v>83.28</v>
       </c>
       <c r="M264" t="n">
         <v>0</v>
@@ -25149,10 +25149,10 @@
         <v>0.64</v>
       </c>
       <c r="K272" t="n">
-        <v>140.4</v>
+        <v>114.99</v>
       </c>
       <c r="L272" t="n">
-        <v>236.4</v>
+        <v>182.67</v>
       </c>
       <c r="M272" t="n">
         <v>0</v>
@@ -25469,10 +25469,10 @@
         <v>0.09</v>
       </c>
       <c r="K276" t="n">
-        <v>118.83</v>
+        <v>117.95</v>
       </c>
       <c r="L276" t="n">
-        <v>870.27</v>
+        <v>853.57</v>
       </c>
       <c r="M276" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0.2</v>
       </c>
       <c r="K277" t="n">
-        <v>81.25</v>
+        <v>73.85</v>
       </c>
       <c r="L277" t="n">
-        <v>455.2</v>
+        <v>370.65</v>
       </c>
       <c r="M277" t="n">
         <v>0</v>
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>36.74</v>
+        <v>36.84</v>
       </c>
       <c r="L279" t="n">
-        <v>133.14</v>
+        <v>132.68</v>
       </c>
       <c r="M279" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>4.02</v>
       </c>
       <c r="L280" t="n">
-        <v>28.79</v>
+        <v>28.77</v>
       </c>
       <c r="M280" t="n">
         <v>0</v>
@@ -25872,7 +25872,7 @@
         <v>7.19</v>
       </c>
       <c r="L281" t="n">
-        <v>38.22</v>
+        <v>38.19</v>
       </c>
       <c r="M281" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>6.59</v>
       </c>
       <c r="L282" t="n">
-        <v>28.39</v>
+        <v>28.36</v>
       </c>
       <c r="M282" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>8.3</v>
+        <v>8.26</v>
       </c>
       <c r="L283" t="n">
-        <v>71.1</v>
+        <v>70.96</v>
       </c>
       <c r="M283" t="n">
         <v>0</v>
@@ -26109,10 +26109,10 @@
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>16.26</v>
+        <v>16.23</v>
       </c>
       <c r="L284" t="n">
-        <v>93.62</v>
+        <v>93.32</v>
       </c>
       <c r="M284" t="n">
         <v>0</v>
@@ -26349,10 +26349,10 @@
         <v>0</v>
       </c>
       <c r="K287" t="n">
-        <v>24.12</v>
+        <v>24.1</v>
       </c>
       <c r="L287" t="n">
-        <v>350.86</v>
+        <v>350.51</v>
       </c>
       <c r="M287" t="n">
         <v>0</v>
@@ -26509,10 +26509,10 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>10.92</v>
+        <v>10.91</v>
       </c>
       <c r="L289" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -26589,10 +26589,10 @@
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>22.16</v>
+        <v>22.14</v>
       </c>
       <c r="L290" t="n">
-        <v>129.86</v>
+        <v>129.6</v>
       </c>
       <c r="M290" t="n">
         <v>0</v>
@@ -26669,10 +26669,10 @@
         <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>39.66</v>
+        <v>39.48</v>
       </c>
       <c r="L291" t="n">
-        <v>138.65</v>
+        <v>135.98</v>
       </c>
       <c r="M291" t="n">
         <v>0</v>
@@ -26752,7 +26752,7 @@
         <v>19.65</v>
       </c>
       <c r="L292" t="n">
-        <v>157.9</v>
+        <v>157.89</v>
       </c>
       <c r="M292" t="n">
         <v>0</v>
@@ -26829,10 +26829,10 @@
         <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>39.29</v>
+        <v>39.22</v>
       </c>
       <c r="L293" t="n">
-        <v>209.33</v>
+        <v>208.67</v>
       </c>
       <c r="M293" t="n">
         <v>0</v>
@@ -28352,7 +28352,7 @@
         <v>3.85</v>
       </c>
       <c r="L312" t="n">
-        <v>17.59</v>
+        <v>17.19</v>
       </c>
       <c r="M312" t="n">
         <v>0</v>
@@ -28432,7 +28432,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="n">
-        <v>6.11</v>
+        <v>6.1</v>
       </c>
       <c r="M313" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="n">
-        <v>9.55</v>
+        <v>9.29</v>
       </c>
       <c r="M314" t="n">
         <v>0</v>
@@ -28589,10 +28589,10 @@
         <v>0</v>
       </c>
       <c r="K315" t="n">
-        <v>10.6</v>
+        <v>9.97</v>
       </c>
       <c r="L315" t="n">
-        <v>8.81</v>
+        <v>8.19</v>
       </c>
       <c r="M315" t="n">
         <v>0</v>
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="n">
-        <v>24.9</v>
+        <v>13.55</v>
       </c>
       <c r="M316" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="n">
-        <v>9.71</v>
+        <v>8.73</v>
       </c>
       <c r="M317" t="n">
         <v>0</v>
@@ -28832,7 +28832,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="n">
-        <v>9.67</v>
+        <v>9.55</v>
       </c>
       <c r="M318" t="n">
         <v>0</v>
@@ -28912,7 +28912,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="n">
-        <v>13.83</v>
+        <v>13.69</v>
       </c>
       <c r="M319" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="n">
-        <v>8.59</v>
+        <v>8.45</v>
       </c>
       <c r="M320" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="K323" t="n">
-        <v>21.32</v>
+        <v>21.05</v>
       </c>
       <c r="L323" t="n">
-        <v>53.55</v>
+        <v>49.84</v>
       </c>
       <c r="M323" t="n">
         <v>0</v>
@@ -29552,7 +29552,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="M327" t="n">
         <v>0</v>
@@ -29629,10 +29629,10 @@
         <v>0</v>
       </c>
       <c r="K328" t="n">
-        <v>7.72</v>
+        <v>7.69</v>
       </c>
       <c r="L328" t="n">
-        <v>18.82</v>
+        <v>18.78</v>
       </c>
       <c r="M328" t="n">
         <v>0</v>
@@ -29709,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="K329" t="n">
-        <v>47.1</v>
+        <v>43.44</v>
       </c>
       <c r="L329" t="n">
-        <v>38.17</v>
+        <v>37.84</v>
       </c>
       <c r="M329" t="n">
         <v>0</v>
@@ -29789,10 +29789,10 @@
         <v>0</v>
       </c>
       <c r="K330" t="n">
-        <v>16.74</v>
+        <v>16.66</v>
       </c>
       <c r="L330" t="n">
-        <v>21.38</v>
+        <v>19.85</v>
       </c>
       <c r="M330" t="n">
         <v>0</v>
@@ -29872,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="n">
-        <v>15.65</v>
+        <v>15.1</v>
       </c>
       <c r="M331" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="M332" t="n">
         <v>0</v>
@@ -30272,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="L336" t="n">
-        <v>12.48</v>
+        <v>12.11</v>
       </c>
       <c r="M336" t="n">
         <v>0</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="L337" t="n">
-        <v>14.09</v>
+        <v>13.99</v>
       </c>
       <c r="M337" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>0</v>
       </c>
       <c r="L338" t="n">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="M338" t="n">
         <v>0</v>
@@ -32752,7 +32752,7 @@
         <v>53.59</v>
       </c>
       <c r="L367" t="n">
-        <v>326.32</v>
+        <v>326.01</v>
       </c>
       <c r="M367" t="n">
         <v>0</v>
@@ -33069,10 +33069,10 @@
         <v>0.14</v>
       </c>
       <c r="K371" t="n">
-        <v>259.59</v>
+        <v>255.87</v>
       </c>
       <c r="L371" t="n">
-        <v>774.26</v>
+        <v>762.73</v>
       </c>
       <c r="M371" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>389.52</v>
       </c>
       <c r="U371" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="V371" t="n">
         <v>0.01</v>
@@ -33149,10 +33149,10 @@
         <v>0.14</v>
       </c>
       <c r="K372" t="n">
-        <v>320.46</v>
+        <v>316.87</v>
       </c>
       <c r="L372" t="n">
-        <v>1305.43</v>
+        <v>1294.82</v>
       </c>
       <c r="M372" t="n">
         <v>0</v>
@@ -33179,7 +33179,7 @@
         <v>497.32</v>
       </c>
       <c r="U372" t="n">
-        <v>10.15</v>
+        <v>10.08</v>
       </c>
       <c r="V372" t="n">
         <v>0</v>
@@ -33229,10 +33229,10 @@
         <v>2.95</v>
       </c>
       <c r="K373" t="n">
-        <v>374.53</v>
+        <v>375.86</v>
       </c>
       <c r="L373" t="n">
-        <v>2961.29</v>
+        <v>2957.95</v>
       </c>
       <c r="M373" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>690.22</v>
       </c>
       <c r="U373" t="n">
-        <v>179.25</v>
+        <v>180.44</v>
       </c>
       <c r="V373" t="n">
         <v>0</v>
@@ -33469,10 +33469,10 @@
         <v>1.85</v>
       </c>
       <c r="K376" t="n">
-        <v>372.75</v>
+        <v>375.54</v>
       </c>
       <c r="L376" t="n">
-        <v>2854.02</v>
+        <v>2858.73</v>
       </c>
       <c r="M376" t="n">
         <v>0</v>
@@ -33499,7 +33499,7 @@
         <v>599.03</v>
       </c>
       <c r="U376" t="n">
-        <v>91.36</v>
+        <v>93.71</v>
       </c>
       <c r="V376" t="n">
         <v>0.01</v>
@@ -34352,7 +34352,7 @@
         <v>117.32</v>
       </c>
       <c r="L387" t="n">
-        <v>1013.44</v>
+        <v>1013.39</v>
       </c>
       <c r="M387" t="n">
         <v>0</v>
@@ -43069,10 +43069,10 @@
         <v>0.21</v>
       </c>
       <c r="K496" t="n">
-        <v>1124.49</v>
+        <v>1025.55</v>
       </c>
       <c r="L496" t="n">
-        <v>1729.33</v>
+        <v>1475.07</v>
       </c>
       <c r="M496" t="n">
         <v>0</v>
@@ -43149,10 +43149,10 @@
         <v>0.56</v>
       </c>
       <c r="K497" t="n">
-        <v>928.82</v>
+        <v>871.5</v>
       </c>
       <c r="L497" t="n">
-        <v>1660.69</v>
+        <v>1480.4</v>
       </c>
       <c r="M497" t="n">
         <v>0</v>
@@ -43309,10 +43309,10 @@
         <v>0.08</v>
       </c>
       <c r="K499" t="n">
-        <v>129.17</v>
+        <v>122.01</v>
       </c>
       <c r="L499" t="n">
-        <v>261.95</v>
+        <v>237.37</v>
       </c>
       <c r="M499" t="n">
         <v>0</v>
@@ -43389,10 +43389,10 @@
         <v>0.01</v>
       </c>
       <c r="K500" t="n">
-        <v>366.6</v>
+        <v>327.61</v>
       </c>
       <c r="L500" t="n">
-        <v>540.31</v>
+        <v>445.93</v>
       </c>
       <c r="M500" t="n">
         <v>0</v>
@@ -43629,10 +43629,10 @@
         <v>0.02</v>
       </c>
       <c r="K503" t="n">
-        <v>75.03</v>
+        <v>71.69</v>
       </c>
       <c r="L503" t="n">
-        <v>163.63</v>
+        <v>156.86</v>
       </c>
       <c r="M503" t="n">
         <v>0</v>
@@ -43949,10 +43949,10 @@
         <v>0.16</v>
       </c>
       <c r="K507" t="n">
-        <v>445.28</v>
+        <v>415.99</v>
       </c>
       <c r="L507" t="n">
-        <v>682.88</v>
+        <v>595.16</v>
       </c>
       <c r="M507" t="n">
         <v>0</v>
@@ -44032,7 +44032,7 @@
         <v>20.75</v>
       </c>
       <c r="L508" t="n">
-        <v>67.72</v>
+        <v>67.69</v>
       </c>
       <c r="M508" t="n">
         <v>0</v>
@@ -44349,10 +44349,10 @@
         <v>0.1</v>
       </c>
       <c r="K512" t="n">
-        <v>296.28</v>
+        <v>286.69</v>
       </c>
       <c r="L512" t="n">
-        <v>2034.86</v>
+        <v>1918.47</v>
       </c>
       <c r="M512" t="n">
         <v>0</v>
@@ -44429,10 +44429,10 @@
         <v>0</v>
       </c>
       <c r="K513" t="n">
-        <v>116.77</v>
+        <v>115.16</v>
       </c>
       <c r="L513" t="n">
-        <v>1028.87</v>
+        <v>1008.66</v>
       </c>
       <c r="M513" t="n">
         <v>0</v>
@@ -44749,10 +44749,10 @@
         <v>0</v>
       </c>
       <c r="K517" t="n">
-        <v>771.8</v>
+        <v>744.3</v>
       </c>
       <c r="L517" t="n">
-        <v>5161.2</v>
+        <v>4835.18</v>
       </c>
       <c r="M517" t="n">
         <v>0</v>
@@ -44829,10 +44829,10 @@
         <v>0</v>
       </c>
       <c r="K518" t="n">
-        <v>376.51</v>
+        <v>358.58</v>
       </c>
       <c r="L518" t="n">
-        <v>2231.03</v>
+        <v>2038.58</v>
       </c>
       <c r="M518" t="n">
         <v>0</v>
@@ -45149,10 +45149,10 @@
         <v>0.07</v>
       </c>
       <c r="K522" t="n">
-        <v>479.25</v>
+        <v>470.35</v>
       </c>
       <c r="L522" t="n">
-        <v>3468.57</v>
+        <v>3323.05</v>
       </c>
       <c r="M522" t="n">
         <v>0</v>
@@ -45229,10 +45229,10 @@
         <v>0</v>
       </c>
       <c r="K523" t="n">
-        <v>186.25</v>
+        <v>189.65</v>
       </c>
       <c r="L523" t="n">
-        <v>1281.5</v>
+        <v>1277.19</v>
       </c>
       <c r="M523" t="n">
         <v>0</v>
@@ -45869,16 +45869,16 @@
         <v>0.17</v>
       </c>
       <c r="K531" t="n">
-        <v>6.83</v>
+        <v>6.24</v>
       </c>
       <c r="L531" t="n">
-        <v>48.74</v>
+        <v>37.7</v>
       </c>
       <c r="M531" t="n">
         <v>0</v>
       </c>
       <c r="N531" t="n">
-        <v>19432.32</v>
+        <v>17671.32</v>
       </c>
       <c r="O531" t="n">
         <v>0</v>
@@ -45905,7 +45905,7 @@
         <v>0</v>
       </c>
       <c r="W531" t="n">
-        <v>1233.44</v>
+        <v>1230.58</v>
       </c>
       <c r="X531" t="n">
         <v>0</v>
@@ -46272,13 +46272,13 @@
         <v>3.62</v>
       </c>
       <c r="L536" t="n">
-        <v>28.27</v>
+        <v>23.6</v>
       </c>
       <c r="M536" t="n">
         <v>0</v>
       </c>
       <c r="N536" t="n">
-        <v>4472.34</v>
+        <v>4380.19</v>
       </c>
       <c r="O536" t="n">
         <v>0</v>
@@ -46305,7 +46305,7 @@
         <v>15.02</v>
       </c>
       <c r="W536" t="n">
-        <v>362.34</v>
+        <v>362.2</v>
       </c>
       <c r="X536" t="n">
         <v>0</v>
@@ -47229,10 +47229,10 @@
         <v>0.18</v>
       </c>
       <c r="K548" t="n">
-        <v>192.23</v>
+        <v>191.78</v>
       </c>
       <c r="L548" t="n">
-        <v>1276.17</v>
+        <v>1274.39</v>
       </c>
       <c r="M548" t="n">
         <v>0</v>
@@ -49712,7 +49712,7 @@
         <v>72.57</v>
       </c>
       <c r="L579" t="n">
-        <v>504.28</v>
+        <v>503.97</v>
       </c>
       <c r="M579" t="n">
         <v>0</v>
@@ -50349,7 +50349,7 @@
         <v>0.04</v>
       </c>
       <c r="K587" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="L587" t="n">
         <v>15.95</v>
@@ -50429,16 +50429,16 @@
         <v>0.63</v>
       </c>
       <c r="K588" t="n">
-        <v>7.97</v>
+        <v>7.48</v>
       </c>
       <c r="L588" t="n">
-        <v>62.82</v>
+        <v>45.64</v>
       </c>
       <c r="M588" t="n">
         <v>0</v>
       </c>
       <c r="N588" t="n">
-        <v>5738.77</v>
+        <v>5698.64</v>
       </c>
       <c r="O588" t="n">
         <v>0</v>
@@ -50509,16 +50509,16 @@
         <v>2.1</v>
       </c>
       <c r="K589" t="n">
-        <v>10.13</v>
+        <v>9.87</v>
       </c>
       <c r="L589" t="n">
-        <v>84.96</v>
+        <v>70.8</v>
       </c>
       <c r="M589" t="n">
         <v>0</v>
       </c>
       <c r="N589" t="n">
-        <v>9068.95</v>
+        <v>9004.86</v>
       </c>
       <c r="O589" t="n">
         <v>0</v>
@@ -50589,16 +50589,16 @@
         <v>0.49</v>
       </c>
       <c r="K590" t="n">
-        <v>21.78</v>
+        <v>19.3</v>
       </c>
       <c r="L590" t="n">
-        <v>81.54</v>
+        <v>57.19</v>
       </c>
       <c r="M590" t="n">
         <v>0</v>
       </c>
       <c r="N590" t="n">
-        <v>5641.38</v>
+        <v>4815.31</v>
       </c>
       <c r="O590" t="n">
         <v>0</v>
@@ -50625,7 +50625,7 @@
         <v>0</v>
       </c>
       <c r="W590" t="n">
-        <v>336.13</v>
+        <v>328.12</v>
       </c>
       <c r="X590" t="n">
         <v>0</v>
@@ -50669,16 +50669,16 @@
         <v>0.36</v>
       </c>
       <c r="K591" t="n">
-        <v>5.84</v>
+        <v>5.15</v>
       </c>
       <c r="L591" t="n">
-        <v>49.56</v>
+        <v>36.46</v>
       </c>
       <c r="M591" t="n">
         <v>0</v>
       </c>
       <c r="N591" t="n">
-        <v>2784.6</v>
+        <v>2783.35</v>
       </c>
       <c r="O591" t="n">
         <v>0</v>
@@ -50749,16 +50749,16 @@
         <v>0.65</v>
       </c>
       <c r="K592" t="n">
-        <v>4.88</v>
+        <v>6.17</v>
       </c>
       <c r="L592" t="n">
-        <v>39.14</v>
+        <v>36.32</v>
       </c>
       <c r="M592" t="n">
         <v>0</v>
       </c>
       <c r="N592" t="n">
-        <v>4827.86</v>
+        <v>4459.99</v>
       </c>
       <c r="O592" t="n">
         <v>0</v>
@@ -50785,7 +50785,7 @@
         <v>0</v>
       </c>
       <c r="W592" t="n">
-        <v>262.73</v>
+        <v>253.9</v>
       </c>
       <c r="X592" t="n">
         <v>0</v>
@@ -50989,16 +50989,16 @@
         <v>1.45</v>
       </c>
       <c r="K595" t="n">
-        <v>56.42</v>
+        <v>53.74</v>
       </c>
       <c r="L595" t="n">
-        <v>135.95</v>
+        <v>103.19</v>
       </c>
       <c r="M595" t="n">
         <v>0</v>
       </c>
       <c r="N595" t="n">
-        <v>8056.63</v>
+        <v>8004.1</v>
       </c>
       <c r="O595" t="n">
         <v>0</v>
@@ -51149,16 +51149,16 @@
         <v>1.41</v>
       </c>
       <c r="K597" t="n">
-        <v>23.29</v>
+        <v>19.58</v>
       </c>
       <c r="L597" t="n">
-        <v>167.57</v>
+        <v>108.83</v>
       </c>
       <c r="M597" t="n">
         <v>0</v>
       </c>
       <c r="N597" t="n">
-        <v>16313.56</v>
+        <v>13507.57</v>
       </c>
       <c r="O597" t="n">
         <v>0</v>
@@ -51185,7 +51185,7 @@
         <v>0</v>
       </c>
       <c r="W597" t="n">
-        <v>856.15</v>
+        <v>795.47</v>
       </c>
       <c r="X597" t="n">
         <v>0</v>
@@ -51229,10 +51229,10 @@
         <v>1.12</v>
       </c>
       <c r="K598" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="L598" t="n">
-        <v>37.24</v>
+        <v>34.61</v>
       </c>
       <c r="M598" t="n">
         <v>0</v>
@@ -51309,16 +51309,16 @@
         <v>0.79</v>
       </c>
       <c r="K599" t="n">
-        <v>9.78</v>
+        <v>7.39</v>
       </c>
       <c r="L599" t="n">
-        <v>73.59</v>
+        <v>44.68</v>
       </c>
       <c r="M599" t="n">
         <v>0</v>
       </c>
       <c r="N599" t="n">
-        <v>6853.87</v>
+        <v>5673.25</v>
       </c>
       <c r="O599" t="n">
         <v>0</v>
@@ -51345,7 +51345,7 @@
         <v>0</v>
       </c>
       <c r="W599" t="n">
-        <v>328.28</v>
+        <v>318.65</v>
       </c>
       <c r="X599" t="n">
         <v>0</v>
@@ -51389,16 +51389,16 @@
         <v>2.05</v>
       </c>
       <c r="K600" t="n">
-        <v>28.26</v>
+        <v>25.49</v>
       </c>
       <c r="L600" t="n">
-        <v>210.79</v>
+        <v>151.39</v>
       </c>
       <c r="M600" t="n">
         <v>0</v>
       </c>
       <c r="N600" t="n">
-        <v>17028.8</v>
+        <v>15533.85</v>
       </c>
       <c r="O600" t="n">
         <v>0</v>
@@ -51425,7 +51425,7 @@
         <v>14.91</v>
       </c>
       <c r="W600" t="n">
-        <v>1094.86</v>
+        <v>1082.82</v>
       </c>
       <c r="X600" t="n">
         <v>0</v>
@@ -51632,7 +51632,7 @@
         <v>4.06</v>
       </c>
       <c r="L603" t="n">
-        <v>13.31</v>
+        <v>13.29</v>
       </c>
       <c r="M603" t="n">
         <v>0</v>
@@ -51709,10 +51709,10 @@
         <v>0.32</v>
       </c>
       <c r="K604" t="n">
-        <v>212.03</v>
+        <v>183.45</v>
       </c>
       <c r="L604" t="n">
-        <v>280.39</v>
+        <v>214.44</v>
       </c>
       <c r="M604" t="n">
         <v>0</v>
@@ -52112,7 +52112,7 @@
         <v>0.67</v>
       </c>
       <c r="L609" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="M609" t="n">
         <v>0</v>
@@ -52189,10 +52189,10 @@
         <v>0.96</v>
       </c>
       <c r="K610" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="L610" t="n">
-        <v>9.28</v>
+        <v>9.18</v>
       </c>
       <c r="M610" t="n">
         <v>0</v>
@@ -52349,10 +52349,10 @@
         <v>1.76</v>
       </c>
       <c r="K612" t="n">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="L612" t="n">
-        <v>8.86</v>
+        <v>6.94</v>
       </c>
       <c r="M612" t="n">
         <v>0</v>
@@ -52509,16 +52509,16 @@
         <v>3.03</v>
       </c>
       <c r="K614" t="n">
-        <v>6.26</v>
+        <v>6.19</v>
       </c>
       <c r="L614" t="n">
-        <v>14.41</v>
+        <v>13.4</v>
       </c>
       <c r="M614" t="n">
         <v>0</v>
       </c>
       <c r="N614" t="n">
-        <v>12777.23</v>
+        <v>12776.3</v>
       </c>
       <c r="O614" t="n">
         <v>0</v>
@@ -52589,16 +52589,16 @@
         <v>4.93</v>
       </c>
       <c r="K615" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="L615" t="n">
-        <v>12.16</v>
+        <v>11.09</v>
       </c>
       <c r="M615" t="n">
         <v>0</v>
       </c>
       <c r="N615" t="n">
-        <v>21482.3</v>
+        <v>21461.93</v>
       </c>
       <c r="O615" t="n">
         <v>0</v>
@@ -52669,16 +52669,16 @@
         <v>2.73</v>
       </c>
       <c r="K616" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
       <c r="L616" t="n">
-        <v>4.65</v>
+        <v>2.92</v>
       </c>
       <c r="M616" t="n">
         <v>0</v>
       </c>
       <c r="N616" t="n">
-        <v>15617.03</v>
+        <v>15610.37</v>
       </c>
       <c r="O616" t="n">
         <v>0</v>
@@ -53389,7 +53389,7 @@
         <v>0</v>
       </c>
       <c r="K625" t="n">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="L625" t="n">
         <v>0</v>
@@ -54192,7 +54192,7 @@
         <v>6.98</v>
       </c>
       <c r="L635" t="n">
-        <v>71.74</v>
+        <v>71.66</v>
       </c>
       <c r="M635" t="n">
         <v>0</v>
@@ -54989,7 +54989,7 @@
         <v>0</v>
       </c>
       <c r="K645" t="n">
-        <v>8.13</v>
+        <v>8.48</v>
       </c>
       <c r="L645" t="n">
         <v>0.11</v>
@@ -55629,10 +55629,10 @@
         <v>0.02</v>
       </c>
       <c r="K653" t="n">
-        <v>85.96</v>
+        <v>85.95</v>
       </c>
       <c r="L653" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="M653" t="n">
         <v>0</v>
@@ -55709,7 +55709,7 @@
         <v>0.01</v>
       </c>
       <c r="K654" t="n">
-        <v>12.74</v>
+        <v>12.73</v>
       </c>
       <c r="L654" t="n">
         <v>0.87</v>
@@ -56589,10 +56589,10 @@
         <v>0</v>
       </c>
       <c r="K665" t="n">
-        <v>22.1</v>
+        <v>21.93</v>
       </c>
       <c r="L665" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="M665" t="n">
         <v>0</v>
@@ -57309,10 +57309,10 @@
         <v>0.04</v>
       </c>
       <c r="K674" t="n">
-        <v>178.72</v>
+        <v>175.62</v>
       </c>
       <c r="L674" t="n">
-        <v>35.33</v>
+        <v>34.83</v>
       </c>
       <c r="M674" t="n">
         <v>0</v>
@@ -57549,10 +57549,10 @@
         <v>0</v>
       </c>
       <c r="K677" t="n">
-        <v>139.65</v>
+        <v>137.17</v>
       </c>
       <c r="L677" t="n">
-        <v>8.36</v>
+        <v>7.93</v>
       </c>
       <c r="M677" t="n">
         <v>0</v>
@@ -57869,7 +57869,7 @@
         <v>0.01</v>
       </c>
       <c r="K681" t="n">
-        <v>22.47</v>
+        <v>22.46</v>
       </c>
       <c r="L681" t="n">
         <v>5.43</v>
@@ -58109,10 +58109,10 @@
         <v>0</v>
       </c>
       <c r="K684" t="n">
-        <v>333.19</v>
+        <v>331.73</v>
       </c>
       <c r="L684" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M684" t="n">
         <v>0</v>
@@ -58189,10 +58189,10 @@
         <v>0</v>
       </c>
       <c r="K685" t="n">
-        <v>1219.32</v>
+        <v>1065.03</v>
       </c>
       <c r="L685" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M685" t="n">
         <v>0</v>
@@ -58269,10 +58269,10 @@
         <v>0</v>
       </c>
       <c r="K686" t="n">
-        <v>270.49</v>
+        <v>262.65</v>
       </c>
       <c r="L686" t="n">
-        <v>3.84</v>
+        <v>3.68</v>
       </c>
       <c r="M686" t="n">
         <v>0</v>
@@ -58429,7 +58429,7 @@
         <v>0</v>
       </c>
       <c r="K688" t="n">
-        <v>109.05</v>
+        <v>97.82</v>
       </c>
       <c r="L688" t="n">
         <v>0</v>
@@ -58589,7 +58589,7 @@
         <v>0</v>
       </c>
       <c r="K690" t="n">
-        <v>9.62</v>
+        <v>10.06</v>
       </c>
       <c r="L690" t="n">
         <v>0</v>
@@ -58749,7 +58749,7 @@
         <v>0</v>
       </c>
       <c r="K692" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="L692" t="n">
         <v>0</v>
@@ -58829,7 +58829,7 @@
         <v>0</v>
       </c>
       <c r="K693" t="n">
-        <v>686.88</v>
+        <v>580.14</v>
       </c>
       <c r="L693" t="n">
         <v>2.63</v>
@@ -58909,10 +58909,10 @@
         <v>0</v>
       </c>
       <c r="K694" t="n">
-        <v>49.86</v>
+        <v>41.61</v>
       </c>
       <c r="L694" t="n">
-        <v>18.39</v>
+        <v>15.52</v>
       </c>
       <c r="M694" t="n">
         <v>0</v>
@@ -59069,10 +59069,10 @@
         <v>0</v>
       </c>
       <c r="K696" t="n">
-        <v>19.78</v>
+        <v>16.48</v>
       </c>
       <c r="L696" t="n">
-        <v>4.94</v>
+        <v>4.75</v>
       </c>
       <c r="M696" t="n">
         <v>0</v>
@@ -59149,7 +59149,7 @@
         <v>0</v>
       </c>
       <c r="K697" t="n">
-        <v>216.97</v>
+        <v>201.74</v>
       </c>
       <c r="L697" t="n">
         <v>0</v>
@@ -59229,7 +59229,7 @@
         <v>0</v>
       </c>
       <c r="K698" t="n">
-        <v>8.48</v>
+        <v>8.14</v>
       </c>
       <c r="L698" t="n">
         <v>0</v>
@@ -59309,10 +59309,10 @@
         <v>0</v>
       </c>
       <c r="K699" t="n">
-        <v>1061.19</v>
+        <v>859.92</v>
       </c>
       <c r="L699" t="n">
-        <v>10.28</v>
+        <v>9.23</v>
       </c>
       <c r="M699" t="n">
         <v>0</v>
@@ -59469,7 +59469,7 @@
         <v>0</v>
       </c>
       <c r="K701" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="L701" t="n">
         <v>0</v>
@@ -59549,10 +59549,10 @@
         <v>0</v>
       </c>
       <c r="K702" t="n">
-        <v>56.07</v>
+        <v>54.91</v>
       </c>
       <c r="L702" t="n">
-        <v>6.01</v>
+        <v>4.72</v>
       </c>
       <c r="M702" t="n">
         <v>0</v>
@@ -59629,7 +59629,7 @@
         <v>0</v>
       </c>
       <c r="K703" t="n">
-        <v>92.45</v>
+        <v>86.97</v>
       </c>
       <c r="L703" t="n">
         <v>0</v>
@@ -59709,7 +59709,7 @@
         <v>0</v>
       </c>
       <c r="K704" t="n">
-        <v>47.98</v>
+        <v>45.34</v>
       </c>
       <c r="L704" t="n">
         <v>0</v>
@@ -59789,7 +59789,7 @@
         <v>0</v>
       </c>
       <c r="K705" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="L705" t="n">
         <v>0</v>
@@ -61869,10 +61869,10 @@
         <v>0.62</v>
       </c>
       <c r="K731" t="n">
-        <v>238.59</v>
+        <v>236.9</v>
       </c>
       <c r="L731" t="n">
-        <v>4030.76</v>
+        <v>3992.07</v>
       </c>
       <c r="M731" t="n">
         <v>0</v>
@@ -61949,10 +61949,10 @@
         <v>0</v>
       </c>
       <c r="K732" t="n">
-        <v>304.04</v>
+        <v>296.7</v>
       </c>
       <c r="L732" t="n">
-        <v>2818.25</v>
+        <v>2696.33</v>
       </c>
       <c r="M732" t="n">
         <v>0</v>
@@ -62014,7 +62014,7 @@
         <v>0</v>
       </c>
       <c r="F733" t="n">
-        <v>47.4</v>
+        <v>46.28</v>
       </c>
       <c r="G733" t="n">
         <v>196.16</v>
@@ -62029,10 +62029,10 @@
         <v>4.58</v>
       </c>
       <c r="K733" t="n">
-        <v>316.56</v>
+        <v>312.76</v>
       </c>
       <c r="L733" t="n">
-        <v>4411.58</v>
+        <v>4282.33</v>
       </c>
       <c r="M733" t="n">
         <v>0</v>
@@ -62429,22 +62429,22 @@
         <v>0.06</v>
       </c>
       <c r="K738" t="n">
-        <v>667.74</v>
+        <v>650.68</v>
       </c>
       <c r="L738" t="n">
-        <v>6387.33</v>
+        <v>5861.32</v>
       </c>
       <c r="M738" t="n">
         <v>0</v>
       </c>
       <c r="N738" t="n">
-        <v>3040.62</v>
+        <v>3040.34</v>
       </c>
       <c r="O738" t="n">
         <v>0</v>
       </c>
       <c r="P738" t="n">
-        <v>1209.6</v>
+        <v>1209.3</v>
       </c>
       <c r="Q738" t="n">
         <v>0</v>
@@ -62456,7 +62456,7 @@
         <v>0</v>
       </c>
       <c r="T738" t="n">
-        <v>1745.32</v>
+        <v>1745.09</v>
       </c>
       <c r="U738" t="n">
         <v>3.81</v>
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="F740" t="n">
-        <v>10652.44</v>
+        <v>5411.16</v>
       </c>
       <c r="G740" t="n">
         <v>2883.85</v>
@@ -62589,25 +62589,25 @@
         <v>84.89</v>
       </c>
       <c r="K740" t="n">
-        <v>2770.98</v>
+        <v>2389.61</v>
       </c>
       <c r="L740" t="n">
-        <v>16588.2</v>
+        <v>12845.97</v>
       </c>
       <c r="M740" t="n">
         <v>0</v>
       </c>
       <c r="N740" t="n">
-        <v>19360.21</v>
+        <v>18748.57</v>
       </c>
       <c r="O740" t="n">
         <v>0</v>
       </c>
       <c r="P740" t="n">
-        <v>2245</v>
+        <v>2232.52</v>
       </c>
       <c r="Q740" t="n">
-        <v>268.21</v>
+        <v>248.81</v>
       </c>
       <c r="R740" t="n">
         <v>52.9</v>
@@ -62616,16 +62616,16 @@
         <v>0</v>
       </c>
       <c r="T740" t="n">
-        <v>10551.31</v>
+        <v>10197.54</v>
       </c>
       <c r="U740" t="n">
-        <v>212.48</v>
+        <v>142.69</v>
       </c>
       <c r="V740" t="n">
         <v>1371.6</v>
       </c>
       <c r="W740" t="n">
-        <v>14591.3</v>
+        <v>14588.17</v>
       </c>
       <c r="X740" t="n">
         <v>0</v>
@@ -62634,7 +62634,7 @@
         <v>3.91</v>
       </c>
       <c r="Z740" t="n">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="741">
@@ -62669,10 +62669,10 @@
         <v>0</v>
       </c>
       <c r="K741" t="n">
-        <v>907.9</v>
+        <v>867.78</v>
       </c>
       <c r="L741" t="n">
-        <v>8822.82</v>
+        <v>8062.63</v>
       </c>
       <c r="M741" t="n">
         <v>0</v>
@@ -62699,7 +62699,7 @@
         <v>2871.2</v>
       </c>
       <c r="U741" t="n">
-        <v>584.42</v>
+        <v>594.53</v>
       </c>
       <c r="V741" t="n">
         <v>0</v>
@@ -62734,7 +62734,7 @@
         <v>0</v>
       </c>
       <c r="F742" t="n">
-        <v>159.64</v>
+        <v>106.81</v>
       </c>
       <c r="G742" t="n">
         <v>1773.64</v>
@@ -62749,10 +62749,10 @@
         <v>4.71</v>
       </c>
       <c r="K742" t="n">
-        <v>1171.07</v>
+        <v>1069.35</v>
       </c>
       <c r="L742" t="n">
-        <v>14363.96</v>
+        <v>11642.99</v>
       </c>
       <c r="M742" t="n">
         <v>0</v>
@@ -62779,7 +62779,7 @@
         <v>2667.32</v>
       </c>
       <c r="U742" t="n">
-        <v>4500.25</v>
+        <v>3933.4</v>
       </c>
       <c r="V742" t="n">
         <v>17.58</v>
